--- a/Actitime/data/testscript.xlsx
+++ b/Actitime/data/testscript.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12585" windowHeight="7515"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,18 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CustomerName</t>
   </si>
   <si>
+    <t>HDFC_001</t>
+  </si>
+  <si>
     <t>CustomerDescription</t>
   </si>
   <si>
-    <t>HdFc</t>
-  </si>
-  <si>
-    <t>Banking</t>
+    <t>Banking Project</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TestCaseModule</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>CreateCustomer</t>
+  </si>
+  <si>
+    <t>Customer Module</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -348,31 +370,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
